--- a/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,18; 1,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,19; 1,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,41; 2,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,64; 2,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,74; 2,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,71; 2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,41; 3,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,28; 2,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,36; 3,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,87; 3,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,76; 2,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,7; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>2,17; 5,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,68; 3,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,19; 2,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,56; 5,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,83; 3,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1569,47 +1569,47 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>0,73; 1,58</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,12</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 2,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,44; 2,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">

--- a/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,6</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0; 1,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0; 5,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,53</t>
+          <t>2,29; 6,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0; 1,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>0; 1,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,64</t>
+          <t>1,37; 3,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 2,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 7,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 4,9</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 6,81</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0; 3,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 9,49</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 6,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 11,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 4,88</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,73; 1,58</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0; 0,12</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>0; 0,14</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,14</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,88; 2,91</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0; 0,16</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>0; 0,11</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,44; 2,1</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0; 0,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,59</t>
+          <t>0,18; 1,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +770,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,3</t>
+          <t>0,18; 1,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,64</t>
+          <t>0,41; 2,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,73</t>
+          <t>0,62; 2,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +910,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,26</t>
+          <t>0,69; 2,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,88</t>
+          <t>0,69; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,86</t>
+          <t>1,36; 3,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,74</t>
+          <t>1,25; 2,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1149,7 +1150,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,12</t>
+          <t>0,36; 3,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1170,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,35</t>
+          <t>0,98; 3,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1190,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,42</t>
+          <t>0,76; 2,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,97</t>
+          <t>0,51; 3,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,93</t>
+          <t>2,27; 5,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,7 +1330,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,82</t>
+          <t>1,76; 3,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1429,7 +1430,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1449,7 +1450,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,56</t>
+          <t>2,24; 6,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1469,7 +1470,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,65</t>
+          <t>1,35; 3,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1569,7 +1570,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,9</t>
+          <t>0,42; 4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1589,7 +1590,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,22</t>
+          <t>1,99; 5,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1609,7 +1610,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,88</t>
+          <t>1,77; 4,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1709,7 +1710,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,58</t>
+          <t>0,77; 1,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1729,7 +1730,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,91</t>
+          <t>1,85; 2,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1749,7 +1750,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,1</t>
+          <t>1,42; 2,1</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos y estimulantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4364</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1900</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>813; 6956</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4359</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8598</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2887</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1628; 11986</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3646</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7712</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8594</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16307</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2825; 16277</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2594</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3804; 17425</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1761</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2024</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8974; 27624</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2135</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9735</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16596</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26330</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2020</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4725; 18438</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9597; 26112</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1250</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17362; 38018</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1950</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1523</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6651</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11223</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17874</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2226; 19550</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3241</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6026; 20784</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1280</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9388; 29556</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2128</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6243</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16595</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22838</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2189; 13242</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2155</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1588</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1930</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10097; 25815</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2211</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1033</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1905</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15331; 34576</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2187</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1281</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14029</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15023</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1856</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5970</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1249</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1732</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7895; 23130</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 944</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8857; 24178</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1097</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14166</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>18561</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1769</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1044; 12015</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1567</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1293</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2117</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7647; 23037</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2277</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 989</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11205; 29592</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1879</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1139</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>38384</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>82913</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>121296</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>26190; 54955</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2425</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>65353; 102762</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1400</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>98553; 145777</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1863</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>